--- a/Japanese/Hiragana/Combination/Combination.xlsx
+++ b/Japanese/Hiragana/Combination/Combination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Dev\AnkiLanguageLearning\Japanese\Hiragana\Dakuten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Dev\AnkiLanguageLearning\Japanese\Hiragana\Combination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A1C81C-94C3-4649-944A-FBCFD0BEF711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C818BA-D4F1-41D0-B1E3-9E4160C6A63E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5610" yWindow="285" windowWidth="22455" windowHeight="15165" xr2:uid="{536B5849-A6CC-4FAD-AE43-782E085253A8}"/>
   </bookViews>
@@ -34,171 +34,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Kana</t>
   </si>
   <si>
-    <t>が</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>ぎ</t>
-  </si>
-  <si>
-    <t>gi</t>
-  </si>
-  <si>
-    <t>ぐ</t>
-  </si>
-  <si>
-    <t>げ</t>
-  </si>
-  <si>
-    <t>ご</t>
-  </si>
-  <si>
-    <t>ge</t>
-  </si>
-  <si>
-    <t>gu</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>ざ</t>
-  </si>
-  <si>
-    <t>za</t>
-  </si>
-  <si>
-    <t>じ</t>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ず</t>
-  </si>
-  <si>
-    <t>zu</t>
-  </si>
-  <si>
-    <t>ぜ</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>ぞ</t>
-  </si>
-  <si>
-    <t>zo</t>
-  </si>
-  <si>
-    <t>だ</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>ぢ</t>
-  </si>
-  <si>
-    <t>づ</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>du</t>
-  </si>
-  <si>
-    <t>で</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>ど</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>ば</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>ぱ</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>び</t>
-  </si>
-  <si>
-    <t>ぴ</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>ぶ</t>
-  </si>
-  <si>
-    <t>bu</t>
-  </si>
-  <si>
-    <t>ぷ</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>べ</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>ぺ</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>ぼ</t>
-  </si>
-  <si>
-    <t>bo</t>
-  </si>
-  <si>
-    <t>ぽ</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Dakuon (濁音)</t>
-  </si>
-  <si>
-    <t>Handakuon (半濁音)</t>
-  </si>
-  <si>
     <t>Romaji</t>
   </si>
   <si>
-    <t>bi</t>
+    <t>Yōon (拗音)</t>
+  </si>
+  <si>
+    <t>きゃ</t>
+  </si>
+  <si>
+    <t>kya</t>
+  </si>
+  <si>
+    <t>きゅ</t>
+  </si>
+  <si>
+    <t>kyu</t>
+  </si>
+  <si>
+    <t>きょ</t>
+  </si>
+  <si>
+    <t>kyo</t>
+  </si>
+  <si>
+    <t>ぎゃ</t>
+  </si>
+  <si>
+    <t>gya</t>
+  </si>
+  <si>
+    <t>ぎゅ</t>
+  </si>
+  <si>
+    <t>gyu</t>
+  </si>
+  <si>
+    <t>ぎょ</t>
+  </si>
+  <si>
+    <t>gyo</t>
+  </si>
+  <si>
+    <t>しゃ</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
+    <t>しゅ</t>
+  </si>
+  <si>
+    <t>shu</t>
+  </si>
+  <si>
+    <t>しょ</t>
+  </si>
+  <si>
+    <t>sho</t>
+  </si>
+  <si>
+    <t>じゃ</t>
+  </si>
+  <si>
+    <t>jya</t>
+  </si>
+  <si>
+    <t>じゅ</t>
+  </si>
+  <si>
+    <t>jyu</t>
+  </si>
+  <si>
+    <t>じょ</t>
+  </si>
+  <si>
+    <t>jyo</t>
+  </si>
+  <si>
+    <t>ちゃ</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>ちゅ</t>
+  </si>
+  <si>
+    <t>chu</t>
+  </si>
+  <si>
+    <t>ちょ</t>
+  </si>
+  <si>
+    <t>cho</t>
+  </si>
+  <si>
+    <t>ぢゃ</t>
+  </si>
+  <si>
+    <t>dya</t>
+  </si>
+  <si>
+    <t>ぢゅ</t>
+  </si>
+  <si>
+    <t>dyu</t>
+  </si>
+  <si>
+    <t>ぢょ</t>
+  </si>
+  <si>
+    <t>にゃ</t>
+  </si>
+  <si>
+    <t>nya</t>
+  </si>
+  <si>
+    <t>にゅ</t>
+  </si>
+  <si>
+    <t>nyu</t>
+  </si>
+  <si>
+    <t>にょ</t>
+  </si>
+  <si>
+    <t>nyo</t>
+  </si>
+  <si>
+    <t>ひゃ</t>
+  </si>
+  <si>
+    <t>hya</t>
+  </si>
+  <si>
+    <t>ひゅ</t>
+  </si>
+  <si>
+    <t>hyu</t>
+  </si>
+  <si>
+    <t>ひょ</t>
+  </si>
+  <si>
+    <t>hyo</t>
+  </si>
+  <si>
+    <t>びゃ</t>
+  </si>
+  <si>
+    <t>bya</t>
+  </si>
+  <si>
+    <t>びゅ</t>
+  </si>
+  <si>
+    <t>byu</t>
+  </si>
+  <si>
+    <t>びょ</t>
+  </si>
+  <si>
+    <t>byo</t>
+  </si>
+  <si>
+    <t>ぴゃ</t>
+  </si>
+  <si>
+    <t>pya</t>
+  </si>
+  <si>
+    <t>ぴゅ</t>
+  </si>
+  <si>
+    <t>pyu</t>
+  </si>
+  <si>
+    <t>ぴょ</t>
+  </si>
+  <si>
+    <t>pyo</t>
+  </si>
+  <si>
+    <t>みゃ</t>
+  </si>
+  <si>
+    <t>mya</t>
+  </si>
+  <si>
+    <t>みゅ</t>
+  </si>
+  <si>
+    <t>myu</t>
+  </si>
+  <si>
+    <t>みょ</t>
+  </si>
+  <si>
+    <t>myo</t>
+  </si>
+  <si>
+    <t>りゃ</t>
+  </si>
+  <si>
+    <t>rya</t>
+  </si>
+  <si>
+    <t>りゅ</t>
+  </si>
+  <si>
+    <t>ryu</t>
+  </si>
+  <si>
+    <t>りょ</t>
+  </si>
+  <si>
+    <t>ryo</t>
   </si>
 </sst>
 </file>
@@ -556,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A31EE-35BD-41CE-8048-7C644EBC537C}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27"/>
@@ -575,197 +635,197 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -773,87 +833,208 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Japanese/Hiragana/Combination/Combination.xlsx
+++ b/Japanese/Hiragana/Combination/Combination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Dev\AnkiLanguageLearning\Japanese\Hiragana\Combination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C818BA-D4F1-41D0-B1E3-9E4160C6A63E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58C56C6-5F9D-4356-8C2B-3DC961012D9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5610" yWindow="285" windowWidth="22455" windowHeight="15165" xr2:uid="{536B5849-A6CC-4FAD-AE43-782E085253A8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Kana</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>ryo</t>
+  </si>
+  <si>
+    <t>dyo</t>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A31EE-35BD-41CE-8048-7C644EBC537C}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27"/>
@@ -833,7 +836,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
